--- a/ESPN sports website/IPL/Kolkata Knight Riders/Venkatesh Iyer.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Venkatesh Iyer.xlsx
@@ -480,31 +480,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C3" t="str">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D3" t="str">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E3" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>121.95</v>
+        <v>42.85</v>
       </c>
       <c r="H3" t="str">
-        <v>Mumbai Indians</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>April 06, 2022</v>
+        <v>April 01, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
+        <v>KKR won by 6 wickets (with 33 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C4" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="str">
         <v>7</v>
@@ -527,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>42.85</v>
+        <v>85.71</v>
       </c>
       <c r="H4" t="str">
-        <v>Punjab Kings</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I4" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>April 01, 2022</v>
+        <v>April 18, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>KKR won by 6 wickets (with 33 balls remaining)</v>
+        <v>Royals won by 7 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,10 +550,10 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C5" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>85.71</v>
+        <v>0.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J5" t="str">
-        <v>April 18, 2022</v>
+        <v>May 18, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Royals won by 7 runs</v>
+        <v>Super Giants won by 2 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C6" t="str">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D6" t="str">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="str">
-        <v>225.00</v>
+        <v>179.16</v>
       </c>
       <c r="H6" t="str">
-        <v>Delhi Capitals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I6" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J6" t="str">
-        <v>April 10, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="7">
@@ -655,31 +655,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C8" t="str">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8" t="str">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E8" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" t="str">
-        <v>179.16</v>
+        <v>121.95</v>
       </c>
       <c r="H8" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="I8" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J8" t="str">
-        <v>May 09, 2022</v>
+        <v>April 06, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
       </c>
     </row>
     <row r="9">
@@ -690,31 +690,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C9" t="str">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D9" t="str">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="str">
-        <v>50.00</v>
+        <v>225.00</v>
       </c>
       <c r="H9" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="I9" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J9" t="str">
-        <v>April 28, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>Capitals won by 44 runs</v>
       </c>
     </row>
     <row r="10">
@@ -760,31 +760,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C11" t="str">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D11" t="str">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E11" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="str">
         <v>0</v>
       </c>
       <c r="G11" t="str">
-        <v>116.66</v>
+        <v>100.00</v>
       </c>
       <c r="H11" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I11" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J11" t="str">
-        <v>May 14, 2022</v>
+        <v>April 23, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>KKR won by 54 runs</v>
+        <v>Titans won by 8 runs</v>
       </c>
     </row>
     <row r="12">
@@ -795,31 +795,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C12" t="str">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D12" t="str">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E12" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="str">
         <v>0</v>
       </c>
       <c r="G12" t="str">
-        <v>100.00</v>
+        <v>50.00</v>
       </c>
       <c r="H12" t="str">
-        <v>Gujarat Titans</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I12" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J12" t="str">
-        <v>April 23, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K12" t="str">
-        <v>Titans won by 8 runs</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
     <row r="13">
@@ -830,31 +830,31 @@
         <v>Venkatesh Iyer</v>
       </c>
       <c r="C13" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="str">
         <v>0</v>
       </c>
       <c r="G13" t="str">
-        <v>0.00</v>
+        <v>116.66</v>
       </c>
       <c r="H13" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I13" t="str">
-        <v>DY Patil</v>
+        <v>Pune</v>
       </c>
       <c r="J13" t="str">
-        <v>May 18, 2022</v>
+        <v>May 14, 2022</v>
       </c>
       <c r="K13" t="str">
-        <v>Super Giants won by 2 runs</v>
+        <v>KKR won by 54 runs</v>
       </c>
     </row>
   </sheetData>
